--- a/Recursos/SampleAppData (3).xlsx
+++ b/Recursos/SampleAppData (3).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariadne.santos\Desktop\teste pratico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariadne.santos\eclipse-workspace\Automacao\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$1:$G$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -74,12 +74,28 @@
   </si>
   <si>
     <t>On</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>27/12/2019</t>
+  </si>
+  <si>
+    <t>25/10/2019</t>
+  </si>
+  <si>
+    <t>Flight Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -136,20 +152,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,26 +485,26 @@
   <dimension ref="A1:IS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
-    <col min="8" max="253" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="18.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="18.125" collapsed="true"/>
+    <col min="8" max="253" customWidth="true" style="1" width="9.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -496,13 +513,13 @@
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -510,14 +527,14 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4">
-        <v>43826</v>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -525,20 +542,22 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
-        <v>43763</v>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -546,7 +565,9 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/Recursos/SampleAppData (3).xlsx
+++ b/Recursos/SampleAppData (3).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FlightNumber</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Portland</t>
   </si>
   <si>
-    <t xml:space="preserve">Frankfurt </t>
-  </si>
-  <si>
     <t>Zurich</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>On</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -89,6 +83,18 @@
   </si>
   <si>
     <t>Flight Details</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t> Flight Confirmation # 2019-11-14130940</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t> Flight Confirmation # 2019-11-14131417</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="A1:IS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -505,36 +511,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -547,26 +553,26 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
